--- a/AFR-Tables/MazdaEdit-AFR-231HP.xlsx
+++ b/AFR-Tables/MazdaEdit-AFR-231HP.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LOW\RX8-E85-Vtune\AFR-Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{105E6211-5D65-4623-8284-84E603610709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3591F6B5-DC2E-43F7-893E-983DCF56B687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{37191EE4-084A-455C-847F-C07633C08EC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{37191EE4-084A-455C-847F-C07633C08EC5}"/>
   </bookViews>
   <sheets>
     <sheet name="AFR 1 (RX8 Evolve 2006 UK)" sheetId="2" r:id="rId1"/>
     <sheet name="AFR 2 (RX8 Evolve 2006 UK)" sheetId="3" r:id="rId2"/>
     <sheet name="AFR 3 (RX8 Evolve 2006 UK)" sheetId="4" r:id="rId3"/>
+    <sheet name="Volumetry Efficienccy " sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3406,7 +3407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B7775-635C-4DB8-935C-614356DD0AF8}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4773,4 +4774,1139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D095E2F3-83EB-429F-AAB5-321D962BD99C}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1.0792999999999999</v>
+      </c>
+      <c r="B1">
+        <v>1.0792999999999999</v>
+      </c>
+      <c r="C1">
+        <v>1.0556000000000001</v>
+      </c>
+      <c r="D1">
+        <v>1.0704</v>
+      </c>
+      <c r="E1">
+        <v>1.0382</v>
+      </c>
+      <c r="F1">
+        <v>1.0286</v>
+      </c>
+      <c r="G1">
+        <v>1.0496000000000001</v>
+      </c>
+      <c r="H1">
+        <v>1.0505</v>
+      </c>
+      <c r="I1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J1">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="K1">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="L1">
+        <v>1.0179</v>
+      </c>
+      <c r="M1">
+        <v>1.1039000000000001</v>
+      </c>
+      <c r="N1">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="O1">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="P1">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="Q1">
+        <v>1.0017</v>
+      </c>
+      <c r="R1">
+        <v>1.0154000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.0792999999999999</v>
+      </c>
+      <c r="B2">
+        <v>1.0792999999999999</v>
+      </c>
+      <c r="C2">
+        <v>1.0596000000000001</v>
+      </c>
+      <c r="D2">
+        <v>1.0205</v>
+      </c>
+      <c r="E2">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F2">
+        <v>1.0293000000000001</v>
+      </c>
+      <c r="G2">
+        <v>1.0368999999999999</v>
+      </c>
+      <c r="H2">
+        <v>1.022</v>
+      </c>
+      <c r="I2">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="J2">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="K2">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="L2">
+        <v>1.0316000000000001</v>
+      </c>
+      <c r="M2">
+        <v>1.1039000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="O2">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="P2">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="Q2">
+        <v>1.0017</v>
+      </c>
+      <c r="R2">
+        <v>1.0154000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.0616000000000001</v>
+      </c>
+      <c r="B3">
+        <v>1.0616000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.0556000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.0125999999999999</v>
+      </c>
+      <c r="E3">
+        <v>1.0095000000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.0165</v>
+      </c>
+      <c r="G3">
+        <v>1.0367999999999999</v>
+      </c>
+      <c r="H3">
+        <v>1.0135000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="K3">
+        <v>0.9667</v>
+      </c>
+      <c r="L3">
+        <v>1.0452999999999999</v>
+      </c>
+      <c r="M3">
+        <v>1.0504</v>
+      </c>
+      <c r="N3">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="O3">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="P3">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>1.0017</v>
+      </c>
+      <c r="R3">
+        <v>1.0154000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.0609</v>
+      </c>
+      <c r="B4">
+        <v>1.0609</v>
+      </c>
+      <c r="C4">
+        <v>1.0295000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1.0024</v>
+      </c>
+      <c r="E4">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F4">
+        <v>1.0135000000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.0116000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="I4">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="J4">
+        <v>0.9556</v>
+      </c>
+      <c r="K4">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="L4">
+        <v>1.0219</v>
+      </c>
+      <c r="M4">
+        <v>0.997</v>
+      </c>
+      <c r="N4">
+        <v>1.0277000000000001</v>
+      </c>
+      <c r="O4">
+        <v>1.0075000000000001</v>
+      </c>
+      <c r="P4">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="R4">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.0555000000000001</v>
+      </c>
+      <c r="B5">
+        <v>1.0555000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.0176000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="E5">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="F5">
+        <v>1.004</v>
+      </c>
+      <c r="G5">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="I5">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="J5">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="K5">
+        <v>0.9698</v>
+      </c>
+      <c r="L5">
+        <v>0.9839</v>
+      </c>
+      <c r="M5">
+        <v>1.0055000000000001</v>
+      </c>
+      <c r="N5">
+        <v>1.0474000000000001</v>
+      </c>
+      <c r="O5">
+        <v>1.0105</v>
+      </c>
+      <c r="P5">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="R5">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.0532999999999999</v>
+      </c>
+      <c r="B6">
+        <v>1.0532999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="H6">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="L6">
+        <v>1.0122</v>
+      </c>
+      <c r="M6">
+        <v>1.0246</v>
+      </c>
+      <c r="N6">
+        <v>1.0498000000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="P6">
+        <v>0.9879</v>
+      </c>
+      <c r="Q6">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="R6">
+        <v>1.0203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.0528</v>
+      </c>
+      <c r="B7">
+        <v>1.0528</v>
+      </c>
+      <c r="C7">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.9677</v>
+      </c>
+      <c r="F7">
+        <v>0.9708</v>
+      </c>
+      <c r="G7">
+        <v>0.9617</v>
+      </c>
+      <c r="H7">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I7">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="J7">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="K7">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="L7">
+        <v>1.0148999999999999</v>
+      </c>
+      <c r="M7">
+        <v>1.0106999999999999</v>
+      </c>
+      <c r="N7">
+        <v>1.0251999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.98</v>
+      </c>
+      <c r="P7">
+        <v>1.0056</v>
+      </c>
+      <c r="Q7">
+        <v>0.9889</v>
+      </c>
+      <c r="R7">
+        <v>1.0056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.0291999999999999</v>
+      </c>
+      <c r="B8">
+        <v>1.0291999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="D8">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="I8">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.9325</v>
+      </c>
+      <c r="K8">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="L8">
+        <v>1.0119</v>
+      </c>
+      <c r="M8">
+        <v>1.0007999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="O8">
+        <v>1.0056</v>
+      </c>
+      <c r="P8">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>0.9859</v>
+      </c>
+      <c r="R8">
+        <v>0.99580000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.0056</v>
+      </c>
+      <c r="B9">
+        <v>1.0056</v>
+      </c>
+      <c r="C9">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="J9">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="L9">
+        <v>1.0002</v>
+      </c>
+      <c r="M9">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="N9">
+        <v>1.0326</v>
+      </c>
+      <c r="O9">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="P9">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.97609999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="B10">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.94330000000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.94450000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.95109999999999995</v>
+      </c>
+      <c r="J10">
+        <v>0.9597</v>
+      </c>
+      <c r="K10">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="L10">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="M10">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="N10">
+        <v>1.0179</v>
+      </c>
+      <c r="O10">
+        <v>0.9879</v>
+      </c>
+      <c r="P10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="R10">
+        <v>0.96630000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.9859</v>
+      </c>
+      <c r="B11">
+        <v>0.9859</v>
+      </c>
+      <c r="C11">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.9466</v>
+      </c>
+      <c r="F11">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="I11">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="J11">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="K11">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="M11">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="N11">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="O11">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="R11">
+        <v>0.96630000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.9859</v>
+      </c>
+      <c r="B12">
+        <v>0.9859</v>
+      </c>
+      <c r="C12">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="E12">
+        <v>0.9073</v>
+      </c>
+      <c r="F12">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="G12">
+        <v>0.9133</v>
+      </c>
+      <c r="H12">
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="I12">
+        <v>0.93510000000000004</v>
+      </c>
+      <c r="J12">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K12">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="L12">
+        <v>0.9859</v>
+      </c>
+      <c r="M12">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="N12">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="O12">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="P12">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="Q12">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="R12">
+        <v>0.9466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.9859</v>
+      </c>
+      <c r="B13">
+        <v>0.9859</v>
+      </c>
+      <c r="C13">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="E13">
+        <v>0.9073</v>
+      </c>
+      <c r="F13">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="G13">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="J13">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="K13">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="L13">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="M13">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="O13">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="P13">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="Q13">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="R13">
+        <v>0.95840000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.9859</v>
+      </c>
+      <c r="B14">
+        <v>0.9859</v>
+      </c>
+      <c r="C14">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="E14">
+        <v>0.9073</v>
+      </c>
+      <c r="F14">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="H14">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="I14">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K14">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="L14">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="M14">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="N14">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="P14">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="Q14">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="R14">
+        <v>0.97609999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.9859</v>
+      </c>
+      <c r="B15">
+        <v>0.9859</v>
+      </c>
+      <c r="C15">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="E15">
+        <v>0.9073</v>
+      </c>
+      <c r="F15">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="H15">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="I15">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="J15">
+        <v>0.96060000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="L15">
+        <v>0.9627</v>
+      </c>
+      <c r="M15">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="N15">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="O15">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="P15">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="Q15">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="R15">
+        <v>0.89390000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.9859</v>
+      </c>
+      <c r="B16">
+        <v>0.9859</v>
+      </c>
+      <c r="C16">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.9073</v>
+      </c>
+      <c r="F16">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="G16">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="H16">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="I16">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="J16">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="K16">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="L16">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="M16">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="N16">
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="O16">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="P16">
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>0.93510000000000004</v>
+      </c>
+      <c r="R16">
+        <v>0.89190000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.9859</v>
+      </c>
+      <c r="B17">
+        <v>0.9859</v>
+      </c>
+      <c r="C17">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="E17">
+        <v>0.9073</v>
+      </c>
+      <c r="F17">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="H17">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="J17">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="K17">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L17">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="M17">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="N17">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="O17">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="P17">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="Q17">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="R17">
+        <v>0.88970000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.9859</v>
+      </c>
+      <c r="B18">
+        <v>0.9859</v>
+      </c>
+      <c r="C18">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.9073</v>
+      </c>
+      <c r="F18">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="H18">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="J18">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="K18">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="L18">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="M18">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="N18">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="O18">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="P18">
+        <v>0.9254</v>
+      </c>
+      <c r="Q18">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="R18">
+        <v>0.88460000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.9859</v>
+      </c>
+      <c r="B19">
+        <v>0.9859</v>
+      </c>
+      <c r="C19">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="E19">
+        <v>0.9073</v>
+      </c>
+      <c r="F19">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="G19">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="H19">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="I19">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="J19">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="L19">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="M19">
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="N19">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="P19">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="Q19">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="R19">
+        <v>0.87419999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.9859</v>
+      </c>
+      <c r="B20">
+        <v>0.9859</v>
+      </c>
+      <c r="C20">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="E20">
+        <v>0.9073</v>
+      </c>
+      <c r="F20">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="G20">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="H20">
+        <v>0.93430000000000002</v>
+      </c>
+      <c r="I20">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="J20">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="K20">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="L20">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="M20">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="N20">
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="O20">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="P20">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="Q20">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="R20">
+        <v>0.87419999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AFR-Tables/MazdaEdit-AFR-231HP.xlsx
+++ b/AFR-Tables/MazdaEdit-AFR-231HP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LOW\RX8-E85-Vtune\AFR-Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3591F6B5-DC2E-43F7-893E-983DCF56B687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA51C32-58C6-4EEF-ADAD-256E6FAAB631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{37191EE4-084A-455C-847F-C07633C08EC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37191EE4-084A-455C-847F-C07633C08EC5}"/>
   </bookViews>
   <sheets>
     <sheet name="AFR 1 (RX8 Evolve 2006 UK)" sheetId="2" r:id="rId1"/>
@@ -177,6 +177,92 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="309685"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1185FF6E-E808-4665-93AD-1AE0540B8114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="309685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="309685"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E784DC66-AA8E-4A7F-9BFF-68C716895F0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="309685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -239,6 +325,92 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646191C8-B6C3-4632-A5BC-F0F45474EB37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="309685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="309685"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6D6748-A79D-4E0F-A7ED-81406859CAEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="4381500"/>
+          <a:ext cx="304800" cy="309685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="309685"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F5FD32-0B4C-4651-88C5-D90FBE5B3A43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -659,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5067D603-3614-4F4F-BA7D-58AB7E8F7F4D}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,6 +2194,1762 @@
       </c>
       <c r="V20" s="1">
         <v>11.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>56</v>
+      </c>
+      <c r="L22">
+        <v>63</v>
+      </c>
+      <c r="M22">
+        <v>69</v>
+      </c>
+      <c r="N22">
+        <v>75</v>
+      </c>
+      <c r="O22">
+        <v>81</v>
+      </c>
+      <c r="P22">
+        <v>88</v>
+      </c>
+      <c r="Q22">
+        <v>94</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>106</v>
+      </c>
+      <c r="T22">
+        <v>113</v>
+      </c>
+      <c r="U22">
+        <v>119</v>
+      </c>
+      <c r="V22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <f>B2/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:V23" si="0">C2/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>750</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:V36" si="1">B3/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.94829931972789117</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1500</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.96598639455782309</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.96598639455782309</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.96598639455782309</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0.96598639455782309</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2500</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0.96598639455782309</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.96598639455782309</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0.96598639455782309</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0.96598639455782309</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0.89183673469387759</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3500</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.99251700680272115</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.99251700680272115</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.89183673469387759</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0.89183673469387759</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>0.82040816326530619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4000</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.97346938775510217</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0.97346938775510217</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.96938775510204089</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.78775510204081634</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>0.78027210884353748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4500</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.97687074829931975</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.94829931972789117</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0.87687074829931977</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>0.8074829931972789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5000</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>0.93401360544217693</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.93401360544217693</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.93401360544217693</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0.91768707482993206</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.93061224489795924</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>0.84761904761904772</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>0.8074829931972789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5500</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.92108843537414964</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0.89523809523809528</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0.90748299319727899</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>0.88299319727891168</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0.85646258503401362</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>0.8231292517006803</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6000</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.89523809523809528</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.90748299319727899</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0.89523809523809528</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.89183673469387759</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0.88299319727891168</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0.87959183673469388</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0.89183673469387759</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>0.84761904761904772</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>0.80272108843537426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6500</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:V36" si="2">E15/14.7</f>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.90136054421768708</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0.81768707482993197</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>0.78503401360544212</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="2"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="2"/>
+        <v>0.78027210884353748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:V41" si="3">B16/14.7</f>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0.84217687074829939</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>0.85646258503401362</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>0.81768707482993197</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>0.77551020408163274</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>0.77551020408163274</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>0.75714285714285723</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>0.75714285714285723</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="3"/>
+        <v>0.75714285714285723</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>0.75714285714285723</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="3"/>
+        <v>0.75714285714285723</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="3"/>
+        <v>0.75714285714285723</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7500</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0.84761904761904772</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0.8448979591836735</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>0.78979591836734697</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>0.78775510204081634</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>0.77823129251700685</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>0.77346938775510199</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>0.77346938775510199</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="3"/>
+        <v>0.77346938775510199</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="3"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="3"/>
+        <v>0.78027210884353748</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0.81768707482993197</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0.8448979591836735</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>0.85306122448979593</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>0.78979591836734697</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>0.78775510204081634</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>0.76870748299319736</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="3"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>0.78503401360544212</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="3"/>
+        <v>0.78503401360544212</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="3"/>
+        <v>0.78503401360544212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8500</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0.8448979591836735</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>0.77823129251700685</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9000</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>0.8448979591836735</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>0.77823129251700685</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="3"/>
+        <v>0.76394557823129261</v>
       </c>
     </row>
   </sheetData>
@@ -2032,10 +3960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFFE020-052D-4439-86B6-4B03987847BE}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A22" sqref="A22:V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3395,6 +5323,1762 @@
       </c>
       <c r="V20" s="1">
         <v>11.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>56</v>
+      </c>
+      <c r="L22">
+        <v>63</v>
+      </c>
+      <c r="M22">
+        <v>69</v>
+      </c>
+      <c r="N22">
+        <v>75</v>
+      </c>
+      <c r="O22">
+        <v>81</v>
+      </c>
+      <c r="P22">
+        <v>88</v>
+      </c>
+      <c r="Q22">
+        <v>94</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>106</v>
+      </c>
+      <c r="T22">
+        <v>113</v>
+      </c>
+      <c r="U22">
+        <v>119</v>
+      </c>
+      <c r="V22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <f>B2/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:V23" si="0">C2/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>750</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:V36" si="1">B3/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.94829931972789117</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1500</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>0.95510204081632655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0.93741496598639451</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2500</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0.93401360544217693</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0.93401360544217693</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0.99591836734693884</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0.99591836734693884</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0.96258503401360551</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3500</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.99251700680272115</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.99251700680272115</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.96598639455782309</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0.96258503401360551</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0.87959183673469388</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="1"/>
+        <v>0.87346938775510208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4000</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.97346938775510217</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0.97346938775510217</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.96938775510204089</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0.93061224489795924</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.84217687074829939</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="1"/>
+        <v>0.83401360544217684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4500</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.97687074829931975</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.94829931972789117</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0.90136054421768708</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0.88299319727891168</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0.89523809523809528</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0.88911564625850348</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>0.86190476190476195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5000</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>0.93401360544217693</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.93401360544217693</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.93401360544217693</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0.91768707482993206</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.93061224489795924</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0.90136054421768708</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0.89183673469387759</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>0.91088435374149668</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0.88911564625850348</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>0.85918367346938784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5500</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.92108843537414964</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0.89523809523809528</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0.90748299319727899</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>0.88299319727891168</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0.85646258503401362</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>0.8231292517006803</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6000</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.89523809523809528</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.90748299319727899</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0.89523809523809528</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.89183673469387759</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0.88299319727891168</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0.87959183673469388</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0.89183673469387759</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>0.84761904761904772</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>0.8231292517006803</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>0.83129251700680284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6500</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:V36" si="2">E15/14.7</f>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.90136054421768708</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0.81768707482993197</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="2"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="2"/>
+        <v>0.83673469387755106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:V41" si="3">B16/14.7</f>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0.84217687074829939</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>0.85646258503401362</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>0.81768707482993197</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>0.77551020408163274</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>0.77551020408163274</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="3"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="3"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="3"/>
+        <v>0.83945578231292517</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7500</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0.84761904761904772</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0.8448979591836735</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>0.78979591836734697</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>0.78775510204081634</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>0.77823129251700685</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>0.84761904761904772</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0.81768707482993197</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0.8448979591836735</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>0.85306122448979593</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>0.78979591836734697</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>0.78775510204081634</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="3"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="3"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="3"/>
+        <v>0.81020408163265312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8500</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0.8448979591836735</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9000</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>0.8448979591836735</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="3"/>
+        <v>0.80272108843537426</v>
       </c>
     </row>
   </sheetData>
@@ -3405,10 +7089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B7775-635C-4DB8-935C-614356DD0AF8}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A22" sqref="A22:V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4768,6 +8452,1762 @@
       </c>
       <c r="V20" s="1">
         <v>11.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>56</v>
+      </c>
+      <c r="L22">
+        <v>63</v>
+      </c>
+      <c r="M22">
+        <v>69</v>
+      </c>
+      <c r="N22">
+        <v>75</v>
+      </c>
+      <c r="O22">
+        <v>81</v>
+      </c>
+      <c r="P22">
+        <v>88</v>
+      </c>
+      <c r="Q22">
+        <v>94</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>106</v>
+      </c>
+      <c r="T22">
+        <v>113</v>
+      </c>
+      <c r="U22">
+        <v>119</v>
+      </c>
+      <c r="V22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <f>B2/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:V23" si="0">C2/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>0.95850340136054424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>750</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:V24" si="1">B3/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>0.95850340136054424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:V25" si="2">B4/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0.94829931972789117</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>0.94489795918367359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1500</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:V26" si="3">B5/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="3"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="3"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="3"/>
+        <v>0.95510204081632655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:V27" si="4">B6/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>0.93741496598639451</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="4"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="4"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="4"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="4"/>
+        <v>0.94149659863945578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2500</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:V28" si="5">B7/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>0.93401360544217693</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>0.93401360544217693</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>0.94489795918367359</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="5"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="5"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="5"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="5"/>
+        <v>0.95170068027210886</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3000</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:V29" si="6">B8/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>0.99591836734693884</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>0.99591836734693884</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>0.96258503401360551</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="6"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="6"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="6"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="6"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="6"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="6"/>
+        <v>0.92721088435374155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3500</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:V30" si="7">B9/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>0.99251700680272115</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>0.99251700680272115</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>0.96598639455782309</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>0.96258503401360551</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
+        <v>0.94149659863945578</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="7"/>
+        <v>0.87959183673469388</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="7"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="7"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="7"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="7"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="7"/>
+        <v>0.87346938775510208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4000</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:V31" si="8">B10/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="8"/>
+        <v>0.99591836734693884</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="8"/>
+        <v>0.99591836734693884</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>0.98095238095238102</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>0.99251700680272115</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="8"/>
+        <v>0.96938775510204089</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>0.90136054421768708</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="8"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="8"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="8"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="8"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="8"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="8"/>
+        <v>0.83401360544217684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4500</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:V32" si="9">B11/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="9"/>
+        <v>0.99591836734693884</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>0.99591836734693884</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="9"/>
+        <v>0.99591836734693884</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="9"/>
+        <v>0.98843537414965987</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="9"/>
+        <v>0.96938775510204089</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="9"/>
+        <v>0.93741496598639451</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="9"/>
+        <v>0.90136054421768708</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="9"/>
+        <v>0.90136054421768708</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="9"/>
+        <v>0.95170068027210886</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="9"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="9"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="9"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="9"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="9"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="9"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="9"/>
+        <v>0.86190476190476195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5000</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:V33" si="10">B12/14.7</f>
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="10"/>
+        <v>0.98843537414965987</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>0.96598639455782309</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="10"/>
+        <v>0.96938775510204089</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>0.99591836734693884</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="10"/>
+        <v>0.97687074829931975</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="10"/>
+        <v>0.94829931972789117</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="10"/>
+        <v>0.90136054421768708</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="10"/>
+        <v>0.90136054421768708</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="10"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="10"/>
+        <v>0.96598639455782309</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="10"/>
+        <v>0.94829931972789117</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="10"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="10"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="10"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="10"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="10"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="10"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="10"/>
+        <v>0.85918367346938784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5500</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:V34" si="11">B13/14.7</f>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="11"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="11"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="11"/>
+        <v>0.88911564625850348</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="11"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
+        <v>0.92721088435374155</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>0.92108843537414964</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="11"/>
+        <v>0.90476190476190488</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="11"/>
+        <v>0.88299319727891168</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="11"/>
+        <v>0.87959183673469388</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="11"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="11"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="11"/>
+        <v>0.92108843537414964</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="11"/>
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="11"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="11"/>
+        <v>0.8231292517006803</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="11"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="11"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="11"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="11"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="11"/>
+        <v>0.83129251700680284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6000</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:V35" si="12">B14/14.7</f>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="12"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="12"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="12"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="12"/>
+        <v>0.89523809523809528</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="12"/>
+        <v>0.90748299319727899</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="12"/>
+        <v>0.89523809523809528</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="12"/>
+        <v>0.89183673469387759</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="12"/>
+        <v>0.88299319727891168</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="12"/>
+        <v>0.87959183673469388</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="12"/>
+        <v>0.87346938775510208</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="12"/>
+        <v>0.89183673469387759</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="12"/>
+        <v>0.84761904761904772</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="12"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="12"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="12"/>
+        <v>0.8231292517006803</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="12"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="12"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="12"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="12"/>
+        <v>0.83129251700680284</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="12"/>
+        <v>0.83129251700680284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6500</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:V36" si="13">B15/14.7</f>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="13"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="13"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="13"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="13"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="13"/>
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="13"/>
+        <v>0.90136054421768708</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="13"/>
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="13"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="13"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="13"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="13"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="13"/>
+        <v>0.81768707482993197</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="13"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="13"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="13"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="13"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="13"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="13"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="13"/>
+        <v>0.83673469387755106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7000</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:V37" si="14">B16/14.7</f>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="14"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="14"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>0.84217687074829939</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>0.85646258503401362</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>0.85918367346938784</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="14"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="14"/>
+        <v>0.85034013605442182</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="14"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="14"/>
+        <v>0.81768707482993197</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="14"/>
+        <v>0.77551020408163274</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="14"/>
+        <v>0.77551020408163274</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="14"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="14"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="14"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="14"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="14"/>
+        <v>0.83945578231292517</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="14"/>
+        <v>0.83945578231292517</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7500</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:V38" si="15">B17/14.7</f>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="15"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="15"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="15"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>0.84761904761904772</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="15"/>
+        <v>0.8448979591836735</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="15"/>
+        <v>0.83401360544217684</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="15"/>
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="15"/>
+        <v>0.78979591836734697</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="15"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="15"/>
+        <v>0.78775510204081634</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="15"/>
+        <v>0.77823129251700685</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="15"/>
+        <v>0.84761904761904772</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="15"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="15"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="15"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="15"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="15"/>
+        <v>0.83673469387755106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8000</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39:V39" si="16">B18/14.7</f>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="16"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="16"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="16"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="16"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="16"/>
+        <v>0.79251700680272119</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="16"/>
+        <v>0.81768707482993197</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="16"/>
+        <v>0.8448979591836735</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="16"/>
+        <v>0.85306122448979593</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="16"/>
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="16"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="16"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="16"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="16"/>
+        <v>0.78979591836734697</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="16"/>
+        <v>0.78775510204081634</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="16"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="16"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="16"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="16"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="16"/>
+        <v>0.81020408163265312</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="16"/>
+        <v>0.81020408163265312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8500</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40:V40" si="17">B19/14.7</f>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="17"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="17"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="17"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="17"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="17"/>
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="17"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="17"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="17"/>
+        <v>0.8448979591836735</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="17"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="17"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="17"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="17"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="17"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="17"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="17"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="17"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="17"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="17"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="17"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="17"/>
+        <v>0.80272108843537426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9000</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:V41" si="18">B20/14.7</f>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="18"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="18"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="18"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="18"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="18"/>
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="18"/>
+        <v>0.82040816326530619</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="18"/>
+        <v>0.82585034013605452</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="18"/>
+        <v>0.8448979591836735</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="18"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="18"/>
+        <v>0.8074829931972789</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="18"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="18"/>
+        <v>0.79727891156462594</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="18"/>
+        <v>0.78027210884353748</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="18"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="18"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="18"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="18"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="18"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="18"/>
+        <v>0.80272108843537426</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="18"/>
+        <v>0.80272108843537426</v>
       </c>
     </row>
   </sheetData>
@@ -4780,8 +10220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D095E2F3-83EB-429F-AAB5-321D962BD99C}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
